--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value888.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value888.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.341368782739333</v>
+        <v>3.197866439819336</v>
       </c>
       <c r="B1">
-        <v>2.391347003905611</v>
+        <v>2.447990417480469</v>
       </c>
       <c r="C1">
-        <v>2.92855235716849</v>
+        <v>1.811211585998535</v>
       </c>
       <c r="D1">
-        <v>3.375450007104519</v>
+        <v>1.688495278358459</v>
       </c>
       <c r="E1">
-        <v>1.709952783503239</v>
+        <v>1.61900782585144</v>
       </c>
     </row>
   </sheetData>
